--- a/www/ig/fhir/annuaire/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T17:20:16+02:00</t>
+    <t>2023-07-18T12:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -300,6 +300,13 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>HealthcareService.meta.id</t>
   </si>
   <si>
@@ -356,13 +363,13 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>HealthcareService.meta.extension:as-data-trace</t>
-  </si>
-  <si>
-    <t>as-data-trace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-data-trace}
+    <t>HealthcareService.meta.extension:as-ext-data-trace</t>
+  </si>
+  <si>
+    <t>as-ext-data-trace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace}
 </t>
   </si>
   <si>
@@ -477,6 +484,9 @@
     <t>Meta.security</t>
   </si>
   <si>
+    <t>CV</t>
+  </si>
+  <si>
     <t>HealthcareService.meta.tag</t>
   </si>
   <si>
@@ -593,9 +603,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>HealthcareService.extension</t>
   </si>
   <si>
@@ -628,10 +635,6 @@
  la liste des activités de soins soumises à autorisation est fixée par décret en Conseil d'Etat (article L.6122-25 du CSP).</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>HealthcareService.extension:as-ext-healthcareservice-authorization-date</t>
   </si>
   <si>
@@ -741,13 +744,10 @@
 </t>
   </si>
   <si>
-    <t>Identifiant fonctionnel, numéro d'autorisation ARHGOS.</t>
+    <t>Identifiant fonctionnel, numéro d'autorisation ARHGOS (Synonyme : numeroAutorisationARHGOS).</t>
   </si>
   <si>
     <t>External identifiers for this item.</t>
-  </si>
-  <si>
-    <t>Synonyme : numeroAutorisationARHGOS</t>
   </si>
   <si>
     <t>.id</t>
@@ -788,13 +788,17 @@
 </t>
   </si>
   <si>
-    <t>Référence vers l'id de la structure FINESS ET à laquelle est rattachée cette activité sanitaire.</t>
+    <t>Référence vers l'id de la structure FINESS ET à laquelle est rattachée cette activité sanitaire (Synonyme : idNat_Struct).</t>
   </si>
   <si>
     <t>The organization that provides this healthcare service.</t>
   </si>
   <si>
-    <t>Synonyme : idNat_Struct</t>
+    <t>This property is recommended to be the same as the Location's managingOrganization, and if not provided should be interpreted as such. If the Location does not have a managing Organization, then this property should be populated.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>.scopingRole.Organization</t>
@@ -811,13 +815,13 @@
 </t>
   </si>
   <si>
-    <t>La modalité étant un mode d’application ou un type de soin prévu par les textes réglementaires encadrant chaque activité de soins.</t>
+    <t>La modalité étant un mode d’application ou un type de soin prévu par les textes réglementaires encadrant chaque activité de soins (Synonyme : modalite).</t>
   </si>
   <si>
     <t>Identifies the broad category of service being performed or delivered.</t>
   </si>
   <si>
-    <t>Synonyme : modalite</t>
+    <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
   </si>
   <si>
     <t>required</t>
@@ -848,6 +852,9 @@
     <t>The specific type of service that may be delivered or performed.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Liste des activités sanitaires</t>
   </si>
   <si>
@@ -861,13 +868,10 @@
   </si>
   <si>
     <t>Code définissant l'activité de soins autorisée -AS- (article L.6122-1 du CSP), 
-la liste des activités de soins soumises à autorisation est fixée par décret en Conseil d'Etat (article L.6122-25 du CSP)</t>
+la liste des activités de soins soumises à autorisation est fixée par décret en Conseil d'Etat (article L.6122-25 du CSP). Synonyme : activite</t>
   </si>
   <si>
     <t>Collection of specialties handled by the service site. This is more of a medical term.</t>
-  </si>
-  <si>
-    <t>Synonyme : activite</t>
   </si>
   <si>
     <t>A specialty that a healthcare service may provide.</t>
@@ -889,6 +893,9 @@
     <t>The location(s) where this healthcare service may be provided.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>.location.role[classCode=SDLOC]</t>
   </si>
   <si>
@@ -902,6 +909,9 @@
   </si>
   <si>
     <t>Further description of the service as it would be presented to a consumer while searching.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>.name</t>
@@ -935,6 +945,9 @@
     <t>Extra details about the service that can't be placed in the other fields.</t>
   </si>
   <si>
+    <t>Systems are not required to have markdown support, so the text should be readable without markdown processing. The markdown syntax is GFM - see https://github.github.com/gfm/</t>
+  </si>
+  <si>
     <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].text</t>
   </si>
   <si>
@@ -951,6 +964,13 @@
     <t>If there is a photo/symbol associated with this HealthcareService, it may be included here to facilitate quick identification of the service in a list.</t>
   </si>
   <si>
+    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
+  </si>
+  <si>
     <t>.actrelationship[typeCode=SBJ].observation.value</t>
   </si>
   <si>
@@ -970,6 +990,10 @@
     <t>If this is empty, then refer to the location's contacts.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>.telecom</t>
   </si>
   <si>
@@ -1093,13 +1117,13 @@
     <t>HealthcareService.characteristic</t>
   </si>
   <si>
-    <t>La forme d'activité étant un type d’organisation de prise en charge.</t>
+    <t>La forme d'activité étant un type d’organisation de prise en charge (Synonyme : forme).</t>
   </si>
   <si>
     <t>Collection of characteristics (attributes).</t>
   </si>
   <si>
-    <t>Synonyme : forme</t>
+    <t>These could be such things as is wheelchair accessible.</t>
   </si>
   <si>
     <t>Liste des formes d'activité</t>
@@ -1118,6 +1142,9 @@
   </si>
   <si>
     <t>When using this property it indicates that the service is available with this language, it is not derived from the practitioners, and not all are required to use this language, just that this language is available while scheduling.</t>
+  </si>
+  <si>
+    <t>CD</t>
   </si>
   <si>
     <t>HealthcareService.referralMethod</t>
@@ -1257,6 +1284,14 @@
     <t>Service is not available (seasonally or for a public holiday) from this date.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
     <t>HealthcareService.availabilityExceptions</t>
   </si>
   <si>
@@ -1277,6 +1312,9 @@
   </si>
   <si>
     <t>Technical endpoints providing access to services operated for the specific healthcare services defined at this resource.</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
 </sst>
 </file>
@@ -1597,17 +1635,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="79.52734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="53.9921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="81.09375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="54.1171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="143.96484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="143.859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1616,24 +1654,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="108.89453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="109.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="49.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="69.52734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="72.5234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2060,13 +2098,13 @@
         <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>73</v>
@@ -2074,10 +2112,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2100,13 +2138,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2157,7 +2195,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
@@ -2172,7 +2210,7 @@
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>73</v>
@@ -2180,14 +2218,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2206,16 +2244,16 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2253,19 +2291,19 @@
         <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
@@ -2274,13 +2312,13 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>73</v>
@@ -2288,13 +2326,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>73</v>
@@ -2316,13 +2354,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2373,7 +2411,7 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
@@ -2382,10 +2420,10 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>73</v>
@@ -2396,10 +2434,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2425,13 +2463,13 @@
         <v>83</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2481,7 +2519,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
@@ -2490,13 +2528,13 @@
         <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>73</v>
@@ -2504,10 +2542,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2530,16 +2568,16 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2589,7 +2627,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -2598,13 +2636,13 @@
         <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>73</v>
@@ -2612,10 +2650,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2638,16 +2676,16 @@
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2697,7 +2735,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -2706,13 +2744,13 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>73</v>
@@ -2720,10 +2758,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2746,16 +2784,16 @@
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2805,7 +2843,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -2814,13 +2852,13 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2828,10 +2866,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2854,16 +2892,16 @@
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2889,13 +2927,13 @@
         <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>73</v>
@@ -2913,7 +2951,7 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
@@ -2922,13 +2960,13 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>73</v>
@@ -2936,10 +2974,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2962,16 +3000,16 @@
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2997,13 +3035,13 @@
         <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>73</v>
@@ -3021,7 +3059,7 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
@@ -3030,13 +3068,13 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>73</v>
@@ -3044,10 +3082,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3070,16 +3108,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3129,7 +3167,7 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -3138,13 +3176,13 @@
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>73</v>
@@ -3152,10 +3190,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3178,16 +3216,16 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3213,13 +3251,13 @@
         <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>73</v>
@@ -3237,7 +3275,7 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
@@ -3246,13 +3284,13 @@
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>73</v>
@@ -3260,14 +3298,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3286,16 +3324,16 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3345,7 +3383,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -3354,13 +3392,13 @@
         <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>73</v>
@@ -3368,14 +3406,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3394,16 +3432,16 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3453,7 +3491,7 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -3468,7 +3506,7 @@
         <v>73</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>73</v>
@@ -3476,10 +3514,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3502,13 +3540,13 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3547,17 +3585,19 @@
         <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
@@ -3566,10 +3606,10 @@
         <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
@@ -3580,13 +3620,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>73</v>
@@ -3608,16 +3648,16 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3667,7 +3707,7 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
@@ -3676,10 +3716,10 @@
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>73</v>
@@ -3690,13 +3730,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>73</v>
@@ -3718,13 +3758,13 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3775,7 +3815,7 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
@@ -3784,10 +3824,10 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>73</v>
@@ -3798,13 +3838,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>73</v>
@@ -3826,13 +3866,13 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3883,7 +3923,7 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -3892,10 +3932,10 @@
         <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>73</v>
@@ -3906,13 +3946,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>73</v>
@@ -3934,13 +3974,13 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3991,7 +4031,7 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
@@ -4000,10 +4040,10 @@
         <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
@@ -4014,13 +4054,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>73</v>
@@ -4042,16 +4082,16 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4101,7 +4141,7 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
@@ -4110,10 +4150,10 @@
         <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>73</v>
@@ -4124,13 +4164,13 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>73</v>
@@ -4152,16 +4192,16 @@
         <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4211,7 +4251,7 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
@@ -4220,10 +4260,10 @@
         <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>73</v>
@@ -4234,14 +4274,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4260,19 +4300,19 @@
         <v>73</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>73</v>
@@ -4309,19 +4349,19 @@
         <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
@@ -4330,13 +4370,13 @@
         <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>73</v>
@@ -4344,10 +4384,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4370,17 +4410,15 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N26" t="s" s="2">
         <v>233</v>
       </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>73</v>
@@ -4429,7 +4467,7 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -4438,10 +4476,10 @@
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>234</v>
@@ -4548,10 +4586,10 @@
         <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>242</v>
@@ -4656,13 +4694,13 @@
         <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>73</v>
@@ -4670,14 +4708,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4696,16 +4734,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4731,13 +4769,13 @@
         <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>73</v>
@@ -4755,7 +4793,7 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
@@ -4764,28 +4802,28 @@
         <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4804,15 +4842,17 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>73</v>
@@ -4837,13 +4877,13 @@
         <v>73</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>73</v>
@@ -4861,7 +4901,7 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
@@ -4870,13 +4910,13 @@
         <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>73</v>
@@ -4884,10 +4924,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4910,16 +4950,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4945,13 +4985,13 @@
         <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>73</v>
@@ -4969,7 +5009,7 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -4978,13 +5018,13 @@
         <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>73</v>
@@ -4992,10 +5032,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5018,15 +5058,17 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>73</v>
@@ -5075,7 +5117,7 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -5084,24 +5126,24 @@
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5124,15 +5166,17 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>73</v>
@@ -5181,7 +5225,7 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
@@ -5190,13 +5234,13 @@
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>73</v>
@@ -5204,10 +5248,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5230,16 +5274,16 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5289,7 +5333,7 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
@@ -5298,13 +5342,13 @@
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>73</v>
@@ -5312,10 +5356,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5338,15 +5382,17 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>73</v>
@@ -5395,7 +5441,7 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
@@ -5404,13 +5450,13 @@
         <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>73</v>
@@ -5418,10 +5464,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5444,15 +5490,17 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>73</v>
@@ -5501,7 +5549,7 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
@@ -5510,13 +5558,13 @@
         <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>120</v>
+        <v>303</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>73</v>
@@ -5524,10 +5572,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5550,16 +5598,16 @@
         <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5609,7 +5657,7 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
@@ -5618,13 +5666,13 @@
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>73</v>
@@ -5632,10 +5680,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5658,16 +5706,16 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5717,7 +5765,7 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
@@ -5726,13 +5774,13 @@
         <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>73</v>
@@ -5740,10 +5788,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5766,16 +5814,16 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5801,13 +5849,13 @@
         <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>73</v>
@@ -5825,7 +5873,7 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
@@ -5834,13 +5882,13 @@
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>73</v>
@@ -5848,10 +5896,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5874,13 +5922,13 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5931,7 +5979,7 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -5940,13 +5988,13 @@
         <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>73</v>
@@ -5954,10 +6002,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5980,13 +6028,13 @@
         <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6037,7 +6085,7 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -6052,7 +6100,7 @@
         <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>73</v>
@@ -6060,14 +6108,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6086,16 +6134,16 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6133,19 +6181,19 @@
         <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
@@ -6154,13 +6202,13 @@
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>73</v>
@@ -6168,14 +6216,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6194,19 +6242,19 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>73</v>
@@ -6255,7 +6303,7 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6264,13 +6312,13 @@
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>73</v>
@@ -6278,10 +6326,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6304,15 +6352,17 @@
         <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>73</v>
@@ -6337,10 +6387,10 @@
         <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>73</v>
@@ -6361,7 +6411,7 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
@@ -6370,13 +6420,13 @@
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>73</v>
@@ -6384,10 +6434,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6410,16 +6460,16 @@
         <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6469,7 +6519,7 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
@@ -6478,13 +6528,13 @@
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>73</v>
@@ -6492,10 +6542,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6518,16 +6568,16 @@
         <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6553,13 +6603,13 @@
         <v>73</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>73</v>
@@ -6577,7 +6627,7 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
@@ -6586,13 +6636,13 @@
         <v>75</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>73</v>
@@ -6600,10 +6650,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6626,16 +6676,16 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6661,13 +6711,13 @@
         <v>73</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>73</v>
@@ -6685,7 +6735,7 @@
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
@@ -6694,13 +6744,13 @@
         <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>73</v>
@@ -6708,10 +6758,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6734,16 +6784,16 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6769,13 +6819,13 @@
         <v>73</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>73</v>
@@ -6793,7 +6843,7 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
@@ -6802,13 +6852,13 @@
         <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>73</v>
+        <v>360</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>73</v>
@@ -6816,10 +6866,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6842,15 +6892,17 @@
         <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>73</v>
@@ -6875,13 +6927,13 @@
         <v>73</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>73</v>
@@ -6899,7 +6951,7 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -6908,13 +6960,13 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>73</v>
@@ -6922,10 +6974,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6951,10 +7003,10 @@
         <v>237</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7005,7 +7057,7 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
@@ -7014,13 +7066,13 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>73</v>
@@ -7028,10 +7080,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7054,16 +7106,16 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7113,7 +7165,7 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
@@ -7122,13 +7174,13 @@
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>73</v>
@@ -7136,10 +7188,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7162,13 +7214,13 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7219,7 +7271,7 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
@@ -7234,7 +7286,7 @@
         <v>73</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>73</v>
@@ -7242,14 +7294,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7268,16 +7320,16 @@
         <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7315,19 +7367,19 @@
         <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
@@ -7336,13 +7388,13 @@
         <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>73</v>
@@ -7350,14 +7402,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7376,19 +7428,19 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>73</v>
@@ -7437,7 +7489,7 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
@@ -7446,13 +7498,13 @@
         <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>73</v>
@@ -7460,10 +7512,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7486,15 +7538,17 @@
         <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>73</v>
@@ -7519,13 +7573,13 @@
         <v>73</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>73</v>
@@ -7543,7 +7597,7 @@
         <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
@@ -7552,13 +7606,13 @@
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>73</v>
@@ -7566,10 +7620,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7595,10 +7649,10 @@
         <v>237</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7649,7 +7703,7 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
@@ -7658,13 +7712,13 @@
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>73</v>
@@ -7672,10 +7726,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7698,16 +7752,16 @@
         <v>73</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7757,7 +7811,7 @@
         <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
@@ -7766,13 +7820,13 @@
         <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>73</v>
@@ -7780,10 +7834,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7806,16 +7860,16 @@
         <v>73</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7865,7 +7919,7 @@
         <v>73</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>74</v>
@@ -7874,13 +7928,13 @@
         <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>73</v>
@@ -7888,10 +7942,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7914,13 +7968,13 @@
         <v>73</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7971,7 +8025,7 @@
         <v>73</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>74</v>
@@ -7980,13 +8034,13 @@
         <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>73</v>
@@ -7994,10 +8048,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8020,13 +8074,13 @@
         <v>73</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8077,7 +8131,7 @@
         <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>74</v>
@@ -8092,7 +8146,7 @@
         <v>73</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>73</v>
@@ -8100,14 +8154,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8126,16 +8180,16 @@
         <v>73</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8173,19 +8227,19 @@
         <v>73</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>74</v>
@@ -8194,13 +8248,13 @@
         <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>73</v>
@@ -8208,14 +8262,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8234,19 +8288,19 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>73</v>
@@ -8295,7 +8349,7 @@
         <v>73</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>74</v>
@@ -8304,13 +8358,13 @@
         <v>75</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>73</v>
@@ -8318,10 +8372,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8344,15 +8398,17 @@
         <v>73</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>73</v>
@@ -8401,7 +8457,7 @@
         <v>73</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -8410,13 +8466,13 @@
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>73</v>
@@ -8424,10 +8480,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8450,15 +8506,17 @@
         <v>73</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>73</v>
@@ -8507,7 +8565,7 @@
         <v>73</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>74</v>
@@ -8516,13 +8574,13 @@
         <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>120</v>
+        <v>407</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>73</v>
@@ -8530,10 +8588,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8556,15 +8614,17 @@
         <v>73</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>73</v>
@@ -8613,7 +8673,7 @@
         <v>73</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>74</v>
@@ -8622,13 +8682,13 @@
         <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>73</v>
@@ -8636,10 +8696,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8662,15 +8722,17 @@
         <v>73</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>73</v>
@@ -8719,7 +8781,7 @@
         <v>73</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>74</v>
@@ -8728,13 +8790,13 @@
         <v>75</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>73</v>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="391">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-2</t>
+    <t>1.0.0-ballot-3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T12:08:09+00:00</t>
+    <t>2023-12-19T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,10 +75,16 @@
     <t>No display for ContactDetail</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Profil applicatif créé à partir du profil générique as-healthcareservice-healthcare-activity dans le contexte des données en accès libre de l'Annuaire Santé.</t>
+    <t>Profil public applicatif créé à partir du profil générique as-healthcareservice-healthcare-activity dans le contexte des données en accès libre de l'Annuaire Santé.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -256,6 +262,10 @@
     <t>The details of a healthcare service available at a location.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+  </si>
+  <si>
     <t>act[classCode=ACT][moodCode=DEF]</t>
   </si>
   <si>
@@ -304,6 +314,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -373,10 +387,10 @@
 </t>
   </si>
   <si>
-    <t>DataTrace</t>
-  </si>
-  <si>
-    <t>Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI))..</t>
+    <t>DataTrace : Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI).</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source</t>
   </si>
   <si>
     <t>HealthcareService.meta.versionId</t>
@@ -392,10 +406,6 @@
   </si>
   <si>
     <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>HealthcareService.meta.lastUpdated</t>
@@ -427,7 +437,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -447,7 +457,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -606,119 +616,26 @@
     <t>HealthcareService.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>HealthcareService.extension:as-ext-healthcareservice-activity-type</t>
-  </si>
-  <si>
-    <t>as-ext-healthcareservice-activity-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-healthcareservice-activity-type}
+    <t>HealthcareService.extension:as-ext-healthcareservice-authorization</t>
+  </si>
+  <si>
+    <t>as-ext-healthcareservice-authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-healthcareservice-authorization}
 </t>
   </si>
   <si>
-    <t>Code définissant l'activité de soins autorisée -AS- (article L.6122-1 du CSP)</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour décrire les types d’activités sanitaires des établissements FINESS.</t>
-  </si>
-  <si>
-    <t>Synonyme : activite 
- la liste des activités de soins soumises à autorisation est fixée par décret en Conseil d'Etat (article L.6122-25 du CSP).</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:as-ext-healthcareservice-authorization-date</t>
-  </si>
-  <si>
-    <t>as-ext-healthcareservice-authorization-date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-healthcareservice-authorization-date}
-</t>
-  </si>
-  <si>
-    <t>Date  délivrance de l’autorisation de l’activité de soins.</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la date  délivrance de l’autorisation de l’activité de soins.</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:as-ext-healthcareservice-authorization-number-arhgos</t>
-  </si>
-  <si>
-    <t>as-ext-healthcareservice-authorization-number-arhgos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-healthcareservice-authorization-number-arhgos}
-</t>
-  </si>
-  <si>
-    <t>Numéro d'autorisation ARGHOS.</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte du numéro d'autorisation ARHGOS.</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:as-ext-healthcareservice-implementation-period</t>
-  </si>
-  <si>
-    <t>as-ext-healthcareservice-implementation-period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-healthcareservice-implementation-period}
-</t>
-  </si>
-  <si>
-    <t>AS HealthcareService Implementation Period Extension</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour en compte de la date d'échéance de l'autorisation de l'activité de soins.</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:as-ext-healthcareservice-delete-autorization-implantation</t>
-  </si>
-  <si>
-    <t>as-ext-healthcareservice-delete-autorization-implantation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-healthcareservice-delete-autorization-implantation}
-</t>
-  </si>
-  <si>
-    <t>Indicateur de suppression de l'autorisation de l'activité de soins.</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour en compte de l'indicateur de suppression de l'autorisation de l'activité de soins.</t>
-  </si>
-  <si>
-    <t>Synonyme : suppressionAutorisation ; donnée propre à FINESS</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:as-ext-healthcareservice-date-update-activity</t>
-  </si>
-  <si>
-    <t>as-ext-healthcareservice-date-update-activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-healthcareservice-date-update-activity}
-</t>
-  </si>
-  <si>
-    <t>Date de dernière mise à jour de l’autorisation.</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la date  de mise à  jour des données de l'activité de soins.</t>
-  </si>
-  <si>
-    <t>Synonyme : dateMajAutorisation</t>
+    <t>AS HealthcareService Autorization Extension</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour décrire les autorisations  des activités sanitaires, sociales, médico-sociales et d'enseignement et des équipements matériels lourds autorisés.</t>
   </si>
   <si>
     <t>HealthcareService.modifierExtension</t>
@@ -744,16 +661,32 @@
 </t>
   </si>
   <si>
-    <t>Identifiant fonctionnel, numéro d'autorisation ARHGOS (Synonyme : numeroAutorisationARHGOS).</t>
+    <t>External identifiers for this item</t>
   </si>
   <si>
     <t>External identifiers for this item.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the identifier.system pattern</t>
+  </si>
+  <si>
     <t>.id</t>
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier:numAutorisationArhgos</t>
+  </si>
+  <si>
+    <t>numAutorisationArhgos</t>
+  </si>
+  <si>
+    <t>Identifiant fonctionnel, numéro d'autorisation ARHGOS (numeroAutorisationARHGOS).</t>
   </si>
   <si>
     <t>HealthcareService.active</t>
@@ -788,7 +721,7 @@
 </t>
   </si>
   <si>
-    <t>Référence vers l'id de la structure FINESS ET à laquelle est rattachée cette activité sanitaire (Synonyme : idNat_Struct).</t>
+    <t>Référence vers l'id de la structure FINESS ET à laquelle est rattachée cette activité sanitaire (idNat_Struct).</t>
   </si>
   <si>
     <t>The organization that provides this healthcare service.</t>
@@ -815,7 +748,7 @@
 </t>
   </si>
   <si>
-    <t>La modalité étant un mode d’application ou un type de soin prévu par les textes réglementaires encadrant chaque activité de soins (Synonyme : modalite).</t>
+    <t>La modalité étant un mode d’application ou un type de soin prévu par les textes réglementaires encadrant chaque activité de soins (modalite).</t>
   </si>
   <si>
     <t>Identifies the broad category of service being performed or delivered.</t>
@@ -825,9 +758,6 @@
   </si>
   <si>
     <t>required</t>
-  </si>
-  <si>
-    <t>Liste des modalités</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J132-ModaliteActivite-RASS/FHIR/JDV-J132-ModaliteActivite-RASS</t>
@@ -846,7 +776,8 @@
 </t>
   </si>
   <si>
-    <t>Code définissant l'activité de soins autorisée.</t>
+    <t>Catégorie d'activité de soin autorisée. 
+Exemple : Activités de soins Soumises à Reconnaissance contractuelle</t>
   </si>
   <si>
     <t>The specific type of service that may be delivered or performed.</t>
@@ -855,29 +786,24 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
-    <t>Liste des activités sanitaires</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J131-CategorieActiviteSanitaireRegulee-RASS/FHIR/JDV-J131-CategorieActiviteSanitaireRegulee-RASS</t>
+  </si>
+  <si>
+    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty</t>
+  </si>
+  <si>
+    <t>Code définissant l'activité de soins autorisée -AS- (article L.6122-1 du CSP), 
+la liste des activités de soins soumises à autorisation est fixée par décret en Conseil d'Etat (article L.6122-25 du CSP).
+activite</t>
+  </si>
+  <si>
+    <t>Collection of specialties handled by the service site. This is more of a medical term.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J133-ActiviteSanitaireRegulee-RASS/FHIR/JDV-J133-ActiviteSanitaireRegulee-RASS</t>
-  </si>
-  <si>
-    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty</t>
-  </si>
-  <si>
-    <t>Code définissant l'activité de soins autorisée -AS- (article L.6122-1 du CSP), 
-la liste des activités de soins soumises à autorisation est fixée par décret en Conseil d'Etat (article L.6122-25 du CSP). Synonyme : activite</t>
-  </si>
-  <si>
-    <t>Collection of specialties handled by the service site. This is more of a medical term.</t>
-  </si>
-  <si>
-    <t>A specialty that a healthcare service may provide.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
   </si>
   <si>
     <t>HealthcareService.location</t>
@@ -1117,16 +1043,13 @@
     <t>HealthcareService.characteristic</t>
   </si>
   <si>
-    <t>La forme d'activité étant un type d’organisation de prise en charge (Synonyme : forme).</t>
+    <t>La forme d'activité étant un type d’organisation de prise en charge (forme).</t>
   </si>
   <si>
     <t>Collection of characteristics (attributes).</t>
   </si>
   <si>
     <t>These could be such things as is wheelchair accessible.</t>
-  </si>
-  <si>
-    <t>Liste des formes d'activité</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J134-FormeActivite-RASS/FHIR/JDV-J134-FormeActivite-RASS</t>
@@ -1436,10 +1359,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1463,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1563,21 +1486,21 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1617,6 +1540,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL66"/>
+  <dimension ref="A1:AL62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1635,9 +1566,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="81.09375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.55078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="54.1171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="36.5703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1660,7 +1591,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="109.73046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="127.58203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1676,2194 +1607,2194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C20" t="s" s="2">
         <v>199</v>
       </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C21" t="s" s="2">
         <v>204</v>
       </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>205</v>
@@ -3877,972 +3808,962 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>73</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>73</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q23" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>73</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>235</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q27" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>243</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>73</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>100</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AG29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>261</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>264</v>
@@ -4855,318 +4776,318 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="AL30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="AL31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>280</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>281</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>96</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>283</v>
@@ -5179,210 +5100,210 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>122</v>
+        <v>286</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>96</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>122</v>
+        <v>228</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>294</v>
@@ -5395,3415 +5316,2981 @@
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>297</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N36" t="s" s="2">
         <v>302</v>
       </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>303</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>304</v>
+        <v>104</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>306</v>
+        <v>100</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>101</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>305</v>
+        <v>103</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>311</v>
+        <v>104</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>276</v>
+        <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>108</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
+        <v>109</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>315</v>
+        <v>110</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>312</v>
+        <v>114</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>249</v>
+        <v>115</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>316</v>
+        <v>98</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>253</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>319</v>
+        <v>75</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>321</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>322</v>
+        <v>98</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>324</v>
+        <v>232</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>100</v>
+        <v>298</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>96</v>
+        <v>269</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>100</v>
+        <v>318</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>104</v>
+        <v>320</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>105</v>
+        <v>321</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>73</v>
+        <v>324</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>94</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>73</v>
+        <v>330</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>94</v>
+        <v>325</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>266</v>
+        <v>334</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>337</v>
+        <v>173</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>341</v>
+        <v>244</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>347</v>
+        <v>75</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>348</v>
+        <v>75</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>354</v>
+        <v>75</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>355</v>
+        <v>75</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>253</v>
+        <v>100</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
+        <v>101</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>356</v>
+        <v>103</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>360</v>
+        <v>104</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>253</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>108</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
+        <v>109</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>365</v>
+        <v>75</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>361</v>
+        <v>114</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>349</v>
+        <v>98</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>349</v>
+        <v>98</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>324</v>
+        <v>168</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>372</v>
+        <v>261</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>73</v>
+        <v>356</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>97</v>
+        <v>358</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>98</v>
+        <v>359</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>99</v>
+        <v>357</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>103</v>
+        <v>361</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>104</v>
+        <v>362</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>105</v>
+        <v>363</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>106</v>
+        <v>364</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>94</v>
+        <v>348</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>103</v>
+        <v>361</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>94</v>
+        <v>348</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>165</v>
+        <v>300</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>381</v>
+        <v>75</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>383</v>
+        <v>101</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>384</v>
+        <v>102</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>382</v>
+        <v>103</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>373</v>
+        <v>104</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>386</v>
+        <v>107</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>387</v>
+        <v>108</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>388</v>
+        <v>109</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>389</v>
+        <v>110</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>385</v>
+        <v>114</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>373</v>
+        <v>98</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>386</v>
+        <v>107</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>391</v>
+        <v>307</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>392</v>
+        <v>308</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>309</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>373</v>
+        <v>98</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>324</v>
+        <v>100</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>373</v>
+        <v>104</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>96</v>
+        <v>378</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>97</v>
+        <v>379</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>99</v>
+        <v>377</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>73</v>
+        <v>382</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>104</v>
+        <v>384</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>105</v>
+        <v>385</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>110</v>
+        <v>383</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>94</v>
+        <v>348</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>103</v>
+        <v>387</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>333</v>
+        <v>386</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL66">
+  <autoFilter ref="A1:AL62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8813,7 +8300,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="446">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>
@@ -689,6 +689,195 @@
     <t>Identifiant fonctionnel, numéro d'autorisation ARHGOS (numeroAutorisationARHGOS).</t>
   </si>
   <si>
+    <t>HealthcareService.identifier:numAutorisationArhgos.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier:numAutorisationArhgos.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier:numAutorisationArhgos.use</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier:numAutorisationArhgos.type</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier:numAutorisationArhgos.system</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://arhgos.ars.sante.fr/</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier:numAutorisationArhgos.value</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier:numAutorisationArhgos.period</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier:numAutorisationArhgos.assigner</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>HealthcareService.active</t>
   </si>
   <si>
@@ -730,10 +919,6 @@
     <t>This property is recommended to be the same as the Location's managingOrganization, and if not provided should be interpreted as such. If the Location does not have a managing Organization, then this property should be populated.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>.scopingRole.Organization</t>
   </si>
   <si>
@@ -744,10 +929,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>La modalité étant un mode d’application ou un type de soin prévu par les textes réglementaires encadrant chaque activité de soins (modalite).</t>
   </si>
   <si>
@@ -755,9 +936,6 @@
   </si>
   <si>
     <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J132-ModaliteActivite-RASS/FHIR/JDV-J132-ModaliteActivite-RASS</t>
@@ -1197,22 +1375,10 @@
     <t>HealthcareService.notAvailable.during</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Service not available from this date</t>
   </si>
   <si>
     <t>Service is not available (seasonally or for a public holiday) from this date.</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>HealthcareService.availabilityExceptions</t>
@@ -1557,7 +1723,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL62"/>
+  <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1585,7 +1751,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -1601,7 +1767,7 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="72.5234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3988,7 +4154,7 @@
         <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3996,7 +4162,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>84</v>
@@ -4005,30 +4171,26 @@
         <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q23" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
         <v>75</v>
       </c>
@@ -4072,7 +4234,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4081,56 +4243,56 @@
         <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4168,34 +4330,34 @@
         <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4203,44 +4365,46 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4264,11 +4428,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -4286,13 +4452,13 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>96</v>
@@ -4301,29 +4467,29 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>239</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -4338,15 +4504,17 @@
         <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4370,11 +4538,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4392,13 +4562,13 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>96</v>
@@ -4407,7 +4577,7 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4415,10 +4585,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4426,13 +4596,13 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>75</v>
@@ -4441,18 +4611,20 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4461,10 +4633,10 @@
         <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>75</v>
@@ -4476,11 +4648,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -4498,13 +4672,13 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>96</v>
@@ -4513,7 +4687,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4521,7 +4695,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>251</v>
@@ -4535,7 +4709,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -4547,16 +4721,16 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4570,7 +4744,7 @@
         <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>75</v>
@@ -4606,25 +4780,25 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" hidden="true">
@@ -4632,7 +4806,7 @@
         <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4643,7 +4817,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -4655,16 +4829,16 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4714,7 +4888,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4726,10 +4900,10 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>265</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4737,10 +4911,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4751,7 +4925,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -4763,16 +4937,16 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>100</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4822,7 +4996,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4834,10 +5008,10 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4845,10 +5019,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4856,37 +5030,39 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="R31" t="s" s="2">
         <v>75</v>
       </c>
@@ -4930,7 +5106,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4945,18 +5121,18 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>75</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4967,10 +5143,10 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>75</v>
@@ -4979,16 +5155,16 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5038,7 +5214,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5050,10 +5226,10 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -5061,42 +5237,42 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5122,13 +5298,11 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -5146,7 +5320,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5158,32 +5332,32 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>286</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>75</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
@@ -5192,19 +5366,19 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5230,13 +5404,11 @@
         <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>75</v>
@@ -5254,7 +5426,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5266,10 +5438,10 @@
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5277,10 +5449,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5294,25 +5466,25 @@
         <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>232</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5338,13 +5510,11 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5362,7 +5532,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5377,7 +5547,7 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5385,10 +5555,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5408,18 +5578,20 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5468,7 +5640,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5480,21 +5652,21 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>104</v>
+        <v>314</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>75</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5505,7 +5677,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5514,18 +5686,20 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5574,7 +5748,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>103</v>
+        <v>316</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5583,13 +5757,13 @@
         <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>104</v>
+        <v>320</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5597,21 +5771,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5620,19 +5794,19 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>108</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>109</v>
+        <v>323</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>110</v>
+        <v>324</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5670,34 +5844,34 @@
         <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>114</v>
+        <v>321</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5705,46 +5879,44 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>306</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
       </c>
@@ -5792,22 +5964,22 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>98</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5815,10 +5987,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5829,7 +6001,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5838,19 +6010,19 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>244</v>
+        <v>336</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5876,10 +6048,10 @@
         <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>313</v>
+        <v>75</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>75</v>
@@ -5900,7 +6072,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5912,10 +6084,10 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>337</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5923,10 +6095,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5937,7 +6109,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -5949,16 +6121,16 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>269</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6008,22 +6180,22 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>344</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -6031,10 +6203,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6057,16 +6229,16 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6092,13 +6264,13 @@
         <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>323</v>
+        <v>75</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
@@ -6116,7 +6288,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6128,10 +6300,10 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -6139,10 +6311,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6153,10 +6325,10 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>75</v>
@@ -6168,13 +6340,13 @@
         <v>232</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6200,11 +6372,13 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -6222,7 +6396,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6237,7 +6411,7 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6245,10 +6419,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6271,17 +6445,15 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6306,13 +6478,13 @@
         <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>75</v>
@@ -6330,7 +6502,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6345,7 +6517,7 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>335</v>
+        <v>104</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6353,10 +6525,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6367,7 +6539,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -6379,17 +6551,15 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>101</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -6414,13 +6584,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>339</v>
+        <v>75</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -6438,22 +6608,22 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>336</v>
+        <v>103</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>325</v>
+        <v>104</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6461,21 +6631,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6487,15 +6657,17 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>342</v>
+        <v>108</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -6532,34 +6704,34 @@
         <v>75</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>341</v>
+        <v>114</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6567,44 +6739,46 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>75</v>
       </c>
@@ -6652,7 +6826,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6664,10 +6838,10 @@
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>348</v>
+        <v>98</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6675,10 +6849,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6701,15 +6875,17 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>101</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -6734,10 +6910,10 @@
         <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>75</v>
+        <v>371</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>75</v>
@@ -6758,7 +6934,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>103</v>
+        <v>368</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6767,13 +6943,13 @@
         <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>104</v>
+        <v>356</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -6781,21 +6957,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -6807,16 +6983,16 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>108</v>
+        <v>373</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>109</v>
+        <v>374</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>110</v>
+        <v>375</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6854,34 +7030,34 @@
         <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>114</v>
+        <v>372</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>98</v>
+        <v>376</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
@@ -6889,46 +7065,44 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>306</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>107</v>
+        <v>232</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>308</v>
+        <v>379</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>75</v>
       </c>
@@ -6952,13 +7126,13 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>75</v>
+        <v>381</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>75</v>
+        <v>382</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -6976,7 +7150,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -6988,10 +7162,10 @@
         <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>98</v>
+        <v>383</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -6999,10 +7173,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7016,7 +7190,7 @@
         <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>75</v>
@@ -7025,16 +7199,16 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>261</v>
+        <v>387</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7060,13 +7234,11 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
@@ -7084,7 +7256,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7099,7 +7271,7 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
@@ -7107,10 +7279,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7121,7 +7293,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
@@ -7133,15 +7305,17 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7166,13 +7340,13 @@
         <v>75</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>75</v>
@@ -7190,13 +7364,13 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>96</v>
@@ -7205,7 +7379,7 @@
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>75</v>
@@ -7213,10 +7387,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7227,7 +7401,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -7239,16 +7413,16 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>361</v>
+        <v>232</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7274,13 +7448,13 @@
         <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>75</v>
+        <v>397</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>75</v>
+        <v>398</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
@@ -7298,13 +7472,13 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>96</v>
@@ -7313,7 +7487,7 @@
         <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>75</v>
@@ -7321,10 +7495,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7335,7 +7509,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -7347,17 +7521,15 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>361</v>
+        <v>277</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -7406,7 +7578,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7421,7 +7593,7 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>75</v>
@@ -7429,10 +7601,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7455,15 +7627,17 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>75</v>
@@ -7512,7 +7686,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7527,7 +7701,7 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -7535,10 +7709,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7641,10 +7815,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7749,14 +7923,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7778,10 +7952,10 @@
         <v>107</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>110</v>
@@ -7836,7 +8010,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>309</v>
+        <v>367</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -7859,10 +8033,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7870,10 +8044,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>75</v>
@@ -7885,16 +8059,16 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7920,13 +8094,13 @@
         <v>75</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>75</v>
+        <v>413</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>75</v>
+        <v>414</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>75</v>
@@ -7944,13 +8118,13 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>96</v>
@@ -7959,7 +8133,7 @@
         <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>104</v>
+        <v>406</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -7967,10 +8141,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7993,17 +8167,15 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>378</v>
+        <v>277</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8052,7 +8224,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8064,10 +8236,10 @@
         <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>382</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
@@ -8075,10 +8247,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8089,7 +8261,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8101,16 +8273,16 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>100</v>
+        <v>419</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>261</v>
+        <v>422</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8160,7 +8332,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8175,7 +8347,7 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>75</v>
@@ -8183,10 +8355,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8197,7 +8369,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -8209,16 +8381,16 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>255</v>
+        <v>422</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8268,29 +8440,891 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL62">
+  <autoFilter ref="A1:AL70">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8300,7 +9334,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -783,7 +783,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://arhgos.ars.sante.fr/</t>
+    <t>https://arhgos.ars.sante.fr</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -906,7 +906,7 @@
     <t>HealthcareService.providedBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization)
 </t>
   </si>
   <si>
@@ -1742,7 +1742,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="143.859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="145.890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3954,7 +3954,7 @@
         <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>75</v>
@@ -4062,7 +4062,7 @@
         <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>75</v>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil public applicatif créé à partir du profil générique as-healthcareservice-healthcare-activity dans le contexte des données en accès libre de l'Annuaire Santé.</t>
+    <t>Profil public applicatif créé à partir du profil générique as-healthcareservice-healthcare-activity dans le contexte des données en accès libre de l'Annuaire Santé. Pour connaître les paramètres de recherches associés à ce profil, il suffit de consulter le CapabilityStatement AsServerCapabilityStatement.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>act[classCode=ACT][moodCode=DEF]</t>
@@ -310,334 +310,494 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace</t>
+  </si>
+  <si>
+    <t>as-ext-data-trace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace}
+</t>
+  </si>
+  <si>
+    <t>DataTrace : Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI).</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source.</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:autorite-enregistrement</t>
+  </si>
+  <si>
+    <t>autorite-enregistrement</t>
+  </si>
+  <si>
+    <t>Autorité d'enregistrement de la ressource.</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:autorite-enregistrement.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension.extension.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:autorite-enregistrement.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:autorite-enregistrement.url</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension.extension.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:autorite-enregistrement.value[x]</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J83-AutoriteEnregistrement-RASS/FHIR/JDV-J83-AutoriteEnregistrement-RASS</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:systeme-information</t>
+  </si>
+  <si>
+    <t>systeme-information</t>
+  </si>
+  <si>
+    <t>Système d'information de la ressource.</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:systeme-information.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:systeme-information.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:systeme-information.url</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:systeme-information.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>RPPS | FINESS | MSS | CG</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/ValueSet/as-vs-type-systeme-information</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:date-maj-ae</t>
+  </si>
+  <si>
+    <t>date-maj-ae</t>
+  </si>
+  <si>
+    <t>Date maj de l'activité selon l'autorité d'enregistrement</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:date-maj-ae.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:date-maj-ae.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:date-maj-ae.url</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:date-maj-ae.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.url</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension.url</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension:as-ext-data-trace.value[x]</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.source</t>
+  </si>
+  <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the canonical url value</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.profile:as-dp-canonical</t>
+  </si>
+  <si>
+    <t>as-dp-canonical</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>HealthcareService.implicitRules</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>HealthcareService.language</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>HealthcareService.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>HealthcareService.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>HealthcareService.extension</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.extension:as-ext-authorization</t>
+  </si>
+  <si>
+    <t>as-ext-authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-authorization}
+</t>
+  </si>
+  <si>
+    <t>AS Authorization Extension</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour décrire les autorisations des activités (HealthcareService) sanitaires, sociales, médico-sociales et d'enseignement et des équipements matériels (Device) lourds autorisés.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace</t>
-  </si>
-  <si>
-    <t>as-ext-data-trace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace}
-</t>
-  </si>
-  <si>
-    <t>DataTrace : Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI).</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>HealthcareService.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>HealthcareService.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>HealthcareService.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>HealthcareService.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:as-ext-healthcareservice-authorization</t>
-  </si>
-  <si>
-    <t>as-ext-healthcareservice-authorization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-healthcareservice-authorization}
-</t>
-  </si>
-  <si>
-    <t>AS HealthcareService Autorization Extension</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour décrire les autorisations  des activités sanitaires, sociales, médico-sociales et d'enseignement et des équipements matériels lourds autorisés.</t>
-  </si>
-  <si>
     <t>HealthcareService.modifierExtension</t>
   </si>
   <si>
@@ -667,11 +827,11 @@
     <t>External identifiers for this item.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:system}
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>Slice based on the identifier.system pattern</t>
+    <t>Slice based on the identifier.system value</t>
   </si>
   <si>
     <t>.id</t>
@@ -719,9 +879,6 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
@@ -738,10 +895,6 @@
   </si>
   <si>
     <t>HealthcareService.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Description of identifier</t>
@@ -835,15 +988,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -871,10 +1016,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -954,20 +1095,44 @@
 </t>
   </si>
   <si>
+    <t>Type of service that may be delivered or performed</t>
+  </si>
+  <si>
+    <t>The specific type of service that may be delivered or performed.</t>
+  </si>
+  <si>
+    <t>Additional details about where the content was created (e.g. clinical specialty).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+  </si>
+  <si>
+    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
+  </si>
+  <si>
+    <t>HealthcareService.type:category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>Catégorie d'activité de soin autorisée. 
 Exemple : Activités de soins Soumises à Reconnaissance contractuelle</t>
   </si>
   <si>
-    <t>The specific type of service that may be delivered or performed.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J131-CategorieActiviteSanitaireRegulee-RASS/FHIR/JDV-J131-CategorieActiviteSanitaireRegulee-RASS</t>
   </si>
   <si>
-    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
+    <t>HealthcareService.type:activity</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>La discipline déterminant la nature de l’activité (CODE_ACT_SOIN).</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J133-ActiviteSanitaireRegulee-RASS/FHIR/JDV-J133-ActiviteSanitaireRegulee-RASS</t>
   </si>
   <si>
     <t>HealthcareService.specialty</t>
@@ -981,9 +1146,6 @@
     <t>Collection of specialties handled by the service site. This is more of a medical term.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J133-ActiviteSanitaireRegulee-RASS/FHIR/JDV-J133-ActiviteSanitaireRegulee-RASS</t>
-  </si>
-  <si>
     <t>HealthcareService.location</t>
   </si>
   <si>
@@ -997,9 +1159,6 @@
     <t>The location(s) where this healthcare service may be provided.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>.location.role[classCode=SDLOC]</t>
   </si>
   <si>
@@ -1013,9 +1172,6 @@
   </si>
   <si>
     <t>Further description of the service as it would be presented to a consumer while searching.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>.name</t>
@@ -1049,9 +1205,6 @@
     <t>Extra details about the service that can't be placed in the other fields.</t>
   </si>
   <si>
-    <t>Systems are not required to have markdown support, so the text should be readable without markdown processing. The markdown syntax is GFM - see https://github.github.com/gfm/</t>
-  </si>
-  <si>
     <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].text</t>
   </si>
   <si>
@@ -1068,13 +1221,6 @@
     <t>If there is a photo/symbol associated with this HealthcareService, it may be included here to facilitate quick identification of the service in a list.</t>
   </si>
   <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
-  </si>
-  <si>
     <t>.actrelationship[typeCode=SBJ].observation.value</t>
   </si>
   <si>
@@ -1094,10 +1240,6 @@
     <t>If this is empty, then refer to the location's contacts.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
     <t>.telecom</t>
   </si>
   <si>
@@ -1245,9 +1387,6 @@
     <t>When using this property it indicates that the service is available with this language, it is not derived from the practitioners, and not all are required to use this language, just that this language is available while scheduling.</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>HealthcareService.referralMethod</t>
   </si>
   <si>
@@ -1401,9 +1540,6 @@
   </si>
   <si>
     <t>Technical endpoints providing access to services operated for the specific healthcare services defined at this resource.</t>
-  </si>
-  <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1859,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL70"/>
+  <dimension ref="A1:AL92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1732,9 +1868,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.55078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="36.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="91.03515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.84765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.13671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1742,7 +1878,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="145.890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2195,13 +2331,13 @@
         <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK4" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>75</v>
@@ -2209,10 +2345,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2235,13 +2371,13 @@
         <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2292,7 +2428,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -2307,7 +2443,7 @@
         <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>75</v>
@@ -2315,14 +2451,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2341,16 +2477,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2388,19 +2524,19 @@
         <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -2409,13 +2545,13 @@
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>75</v>
@@ -2423,13 +2559,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>75</v>
@@ -2451,13 +2587,13 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2508,7 +2644,7 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -2517,10 +2653,10 @@
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
@@ -2531,10 +2667,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2554,20 +2690,18 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>75</v>
@@ -2616,7 +2750,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2625,13 +2759,13 @@
         <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>75</v>
@@ -2639,21 +2773,21 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -2662,19 +2796,19 @@
         <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2712,34 +2846,34 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>75</v>
@@ -2747,12 +2881,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2770,20 +2906,18 @@
         <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -2832,22 +2966,22 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>75</v>
@@ -2855,10 +2989,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2869,7 +3003,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -2878,20 +3012,18 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2940,22 +3072,22 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>75</v>
@@ -2963,10 +3095,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2977,7 +3109,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2986,20 +3118,18 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
@@ -3024,31 +3154,31 @@
         <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3057,13 +3187,13 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>75</v>
@@ -3071,10 +3201,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3082,10 +3212,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -3094,19 +3224,19 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3114,7 +3244,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>75</v>
@@ -3132,13 +3262,13 @@
         <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>75</v>
@@ -3156,22 +3286,22 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -3179,10 +3309,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3199,23 +3329,21 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -3240,13 +3368,11 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -3264,7 +3390,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3273,13 +3399,13 @@
         <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -3287,12 +3413,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>75</v>
       </c>
@@ -3313,17 +3441,15 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -3348,13 +3474,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3372,22 +3498,22 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -3395,14 +3521,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3421,17 +3547,15 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3480,7 +3604,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3489,13 +3613,13 @@
         <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -3503,21 +3627,21 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3529,17 +3653,15 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3576,19 +3698,19 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3600,10 +3722,10 @@
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -3611,21 +3733,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -3637,16 +3759,16 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3654,7 +3776,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>75</v>
@@ -3684,34 +3806,34 @@
         <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3719,14 +3841,12 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3735,10 +3855,10 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>75</v>
@@ -3747,13 +3867,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3780,13 +3900,11 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
@@ -3804,22 +3922,22 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3827,46 +3945,44 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3902,19 +4018,19 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3923,13 +4039,13 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -3937,10 +4053,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3951,7 +4067,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3960,16 +4076,16 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
+        <v>100</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4008,49 +4124,47 @@
         <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>75</v>
       </c>
@@ -4059,25 +4173,25 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4116,19 +4230,19 @@
         <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4137,24 +4251,24 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>211</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4162,7 +4276,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>84</v>
@@ -4177,22 +4291,24 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>75</v>
@@ -4234,10 +4350,10 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>84</v>
@@ -4249,7 +4365,7 @@
         <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -4257,21 +4373,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4283,17 +4399,15 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4330,34 +4444,34 @@
         <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4365,10 +4479,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4376,7 +4490,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>84</v>
@@ -4385,32 +4499,30 @@
         <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>75</v>
@@ -4428,13 +4540,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -4452,22 +4564,22 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4475,10 +4587,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4489,7 +4601,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -4498,23 +4610,19 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>143</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4538,13 +4646,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>237</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4562,7 +4670,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4571,13 +4679,13 @@
         <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4585,10 +4693,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4596,7 +4704,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>84</v>
@@ -4611,20 +4719,18 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4633,10 +4739,10 @@
         <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>75</v>
@@ -4672,7 +4778,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4681,13 +4787,13 @@
         <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4695,10 +4801,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4721,16 +4827,16 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4744,7 +4850,7 @@
         <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>75</v>
@@ -4780,7 +4886,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4789,13 +4895,13 @@
         <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4803,10 +4909,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4829,16 +4935,16 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4888,7 +4994,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4897,13 +5003,13 @@
         <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4911,10 +5017,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4922,10 +5028,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -4937,16 +5043,16 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4984,34 +5090,34 @@
         <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="AK30" t="s" s="2">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -5019,12 +5125,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>75</v>
       </c>
@@ -5039,35 +5147,33 @@
         <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
+        <v>192</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q31" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>75</v>
@@ -5106,33 +5212,33 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>276</v>
+        <v>196</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5143,10 +5249,10 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>75</v>
@@ -5155,16 +5261,16 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5190,13 +5296,13 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -5214,22 +5320,22 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -5237,14 +5343,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5254,7 +5360,7 @@
         <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>75</v>
@@ -5263,16 +5369,16 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>293</v>
+        <v>209</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>294</v>
+        <v>210</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5298,11 +5404,13 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="Z33" t="s" s="2">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -5320,7 +5428,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5329,56 +5437,56 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>297</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>299</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>216</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
+        <v>217</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5404,11 +5512,13 @@
         <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>75</v>
@@ -5426,22 +5536,22 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>304</v>
+        <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5449,10 +5559,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5463,28 +5573,28 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5510,11 +5620,13 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>308</v>
+        <v>226</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5532,22 +5644,22 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK35" t="s" s="2">
-        <v>304</v>
+        <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5555,21 +5667,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>309</v>
+        <v>228</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5578,19 +5690,19 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5640,44 +5752,44 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="AK36" t="s" s="2">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>315</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>236</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5686,19 +5798,19 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5748,22 +5860,22 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>320</v>
+        <v>139</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5771,10 +5883,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5785,7 +5897,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5794,20 +5906,18 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>322</v>
+        <v>131</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -5844,34 +5954,32 @@
         <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5879,12 +5987,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>75</v>
       </c>
@@ -5893,10 +6003,10 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>75</v>
@@ -5905,17 +6015,15 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>327</v>
+        <v>247</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -5964,22 +6072,22 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>326</v>
+        <v>244</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>250</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>331</v>
+        <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5987,44 +6095,46 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>335</v>
+        <v>253</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -6072,22 +6182,22 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>332</v>
+        <v>255</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>337</v>
+        <v>113</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>338</v>
+        <v>139</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -6095,10 +6205,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6106,10 +6216,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -6118,20 +6228,18 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6168,19 +6276,19 @@
         <v>75</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6189,57 +6297,57 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AK41" t="s" s="2">
-        <v>345</v>
+        <v>262</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>266</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6288,7 +6396,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>256</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6297,24 +6405,24 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="AK42" t="s" s="2">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>267</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>351</v>
+        <v>268</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6325,7 +6433,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6337,17 +6445,15 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>352</v>
+        <v>99</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -6372,13 +6478,13 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>353</v>
+        <v>75</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>355</v>
+        <v>75</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -6396,22 +6502,22 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>356</v>
+        <v>102</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6419,21 +6525,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6445,15 +6551,17 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>358</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>106</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6490,19 +6598,19 @@
         <v>75</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>357</v>
+        <v>112</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6511,13 +6619,13 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6525,10 +6633,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>271</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>272</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6545,22 +6653,26 @@
         <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>101</v>
+        <v>273</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6584,13 +6696,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -6608,7 +6720,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6620,10 +6732,10 @@
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6631,21 +6743,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>282</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6654,21 +6766,23 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>75</v>
       </c>
@@ -6692,46 +6806,46 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>75</v>
+        <v>288</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>114</v>
+        <v>289</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AK46" t="s" s="2">
-        <v>98</v>
+        <v>280</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6739,45 +6853,45 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>290</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>292</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
+        <v>293</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>110</v>
+        <v>294</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>202</v>
+        <v>295</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>75</v>
@@ -6787,10 +6901,10 @@
         <v>75</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>75</v>
+        <v>297</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>75</v>
@@ -6826,22 +6940,22 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>298</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AK47" t="s" s="2">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6849,10 +6963,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6872,19 +6986,19 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6898,7 +7012,7 @@
         <v>75</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>75</v>
@@ -6910,10 +7024,10 @@
         <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>371</v>
+        <v>75</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>75</v>
@@ -6934,7 +7048,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6943,13 +7057,13 @@
         <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK48" t="s" s="2">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -6957,10 +7071,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6980,20 +7094,18 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>311</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
@@ -7042,7 +7154,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7051,13 +7163,13 @@
         <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK49" t="s" s="2">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
@@ -7065,10 +7177,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7079,7 +7191,7 @@
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
@@ -7088,19 +7200,19 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7126,13 +7238,13 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>381</v>
+        <v>75</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>382</v>
+        <v>75</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -7150,22 +7262,22 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -7173,10 +7285,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7184,37 +7296,39 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="I51" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="R51" t="s" s="2">
         <v>75</v>
       </c>
@@ -7234,11 +7348,13 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>388</v>
+        <v>75</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
@@ -7256,33 +7372,33 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>75</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7293,28 +7409,28 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>232</v>
+        <v>332</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7340,13 +7456,13 @@
         <v>75</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>75</v>
@@ -7364,22 +7480,22 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK52" t="s" s="2">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>75</v>
@@ -7387,42 +7503,42 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>75</v>
+        <v>338</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7448,13 +7564,11 @@
         <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
@@ -7472,7 +7586,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7481,35 +7595,35 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK53" t="s" s="2">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>75</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>345</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>345</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -7518,16 +7632,16 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7554,46 +7668,44 @@
         <v>75</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>399</v>
+        <v>345</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK54" t="s" s="2">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>75</v>
@@ -7601,21 +7713,23 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="D55" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -7624,20 +7738,18 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>358</v>
+        <v>142</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>75</v>
@@ -7662,13 +7774,11 @@
         <v>75</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>75</v>
@@ -7686,7 +7796,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7695,13 +7805,13 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK55" t="s" s="2">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -7709,14 +7819,16 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="D56" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7732,16 +7844,16 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>101</v>
+        <v>358</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>102</v>
+        <v>348</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7768,13 +7880,11 @@
         <v>75</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -7792,22 +7902,22 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>103</v>
+        <v>345</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>104</v>
+        <v>351</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>75</v>
@@ -7815,43 +7925,41 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>108</v>
+        <v>361</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -7876,31 +7984,29 @@
         <v>75</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>114</v>
+        <v>360</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -7909,13 +8015,13 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AK57" t="s" s="2">
-        <v>98</v>
+        <v>351</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -7923,33 +8029,33 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>107</v>
+        <v>364</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>365</v>
@@ -7957,12 +8063,8 @@
       <c r="M58" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N58" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>75</v>
       </c>
@@ -8010,7 +8112,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8019,24 +8121,24 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AK58" t="s" s="2">
-        <v>98</v>
+        <v>367</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>75</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8047,7 +8149,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>75</v>
@@ -8056,20 +8158,18 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>75</v>
@@ -8094,13 +8194,13 @@
         <v>75</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>413</v>
+        <v>75</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>414</v>
+        <v>75</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>75</v>
@@ -8118,22 +8218,22 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK59" t="s" s="2">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -8141,10 +8241,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8155,7 +8255,7 @@
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
@@ -8164,18 +8264,20 @@
         <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>277</v>
+        <v>98</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8224,7 +8326,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8233,13 +8335,13 @@
         <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK60" t="s" s="2">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
@@ -8247,10 +8349,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8261,7 +8363,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8273,17 +8375,15 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -8332,7 +8432,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8341,13 +8441,13 @@
         <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK61" t="s" s="2">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>75</v>
@@ -8355,10 +8455,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8369,7 +8469,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -8378,20 +8478,18 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -8440,7 +8538,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8449,13 +8547,13 @@
         <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK62" t="s" s="2">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
@@ -8463,10 +8561,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8489,15 +8587,17 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -8546,7 +8646,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8555,13 +8655,13 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK63" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -8569,10 +8669,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8583,7 +8683,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -8595,15 +8695,17 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>101</v>
+        <v>395</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -8652,22 +8754,22 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>103</v>
+        <v>394</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>104</v>
+        <v>398</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -8675,21 +8777,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>75</v>
@@ -8701,16 +8803,16 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>108</v>
+        <v>400</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>109</v>
+        <v>401</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>110</v>
+        <v>402</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8736,31 +8838,31 @@
         <v>75</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>75</v>
+        <v>401</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>75</v>
+        <v>403</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>114</v>
+        <v>399</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -8769,13 +8871,13 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ65" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AK65" t="s" s="2">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>75</v>
@@ -8783,46 +8885,42 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>107</v>
+        <v>406</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>75</v>
       </c>
@@ -8870,7 +8968,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -8879,13 +8977,13 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ66" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AK66" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>75</v>
@@ -8893,10 +8991,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8904,7 +9002,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>84</v>
@@ -8919,17 +9017,15 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>75</v>
@@ -8978,22 +9074,22 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>432</v>
+        <v>101</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>75</v>
@@ -9001,21 +9097,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
@@ -9027,16 +9123,16 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>260</v>
+        <v>105</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>436</v>
+        <v>106</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>437</v>
+        <v>107</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>263</v>
+        <v>108</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9086,22 +9182,22 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>435</v>
+        <v>112</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>265</v>
+        <v>113</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>406</v>
+        <v>102</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>75</v>
@@ -9109,44 +9205,46 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>75</v>
+        <v>412</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>75</v>
       </c>
@@ -9194,22 +9292,22 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>406</v>
+        <v>139</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>75</v>
@@ -9217,10 +9315,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9231,7 +9329,7 @@
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
@@ -9243,17 +9341,15 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>442</v>
+        <v>142</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>75</v>
@@ -9278,10 +9374,10 @@
         <v>75</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>75</v>
+        <v>419</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>75</v>
@@ -9302,29 +9398,2385 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Y73" s="2"/>
+      <c r="Z73" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AG70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH70" t="s" s="2">
+      <c r="B75" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH75" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AI70" t="s" s="2">
+      <c r="AI75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ70" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AK75" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL70">
+  <autoFilter ref="A1:AL92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9334,7 +11786,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI69">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
